--- a/ages.xlsx
+++ b/ages.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc100\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4452"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,9 +193,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="th-TH"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -225,25 +230,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>60 +</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45 - 49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25 - 44</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>15 - 24</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>25 - 44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45 - 49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60 +</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>ชาย</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>หญิง</c:v>
                 </c:pt>
               </c:strCache>
@@ -251,31 +253,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>6840281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10155436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14705817</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>8053979</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>14705817</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10155436</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6840281</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>12394843</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>27360671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5ED-48ED-88E3-78D502E348B8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -294,25 +298,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>60 +</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45 - 49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25 - 44</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>15 - 24</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>25 - 44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45 - 49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60 +</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>ชาย</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>หญิง</c:v>
                 </c:pt>
               </c:strCache>
@@ -320,31 +321,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1526576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3012147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4356166</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1107634</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4356166</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3012147</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1526576</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>9490044</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>512479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5ED-48ED-88E3-78D502E348B8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -363,25 +366,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>60 +</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45 - 49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25 - 44</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>15 - 24</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>25 - 44</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45 - 49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60 +</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>ชาย</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>หญิง</c:v>
                 </c:pt>
               </c:strCache>
@@ -389,31 +389,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>132891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>326319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>595611</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>306103</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>595611</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>326319</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>132891</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1256780</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>104143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E5ED-48ED-88E3-78D502E348B8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -434,6 +436,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -463,7 +466,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -495,7 +497,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="แผนภูมิ 2"/>
+        <xdr:cNvPr id="3" name="แผนภูมิ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -802,7 +810,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -813,18 +821,18 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -841,131 +849,119 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6840281</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1526576</v>
+      </c>
+      <c r="D2" s="1">
+        <v>132891</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9980359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10155436</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3012147</v>
+      </c>
+      <c r="D3" s="1">
+        <v>326319</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14620983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14705817</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4356166</v>
+      </c>
+      <c r="D4" s="1">
+        <v>595611</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20593116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B5" s="1">
         <v>8053979</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C5" s="1">
         <v>1107634</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D5" s="1">
         <v>306103</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E5" s="1">
         <v>9636779</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14705817</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4356166</v>
-      </c>
-      <c r="D3" s="1">
-        <v>595611</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20593116</v>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>27360671</v>
+      </c>
+      <c r="C6" s="1">
+        <v>512479</v>
+      </c>
+      <c r="D6" s="1">
+        <v>104143</v>
+      </c>
+      <c r="E6" s="1">
+        <v>28307159</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10155436</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3012147</v>
-      </c>
-      <c r="D4" s="1">
-        <v>326319</v>
-      </c>
-      <c r="E4" s="1">
-        <v>14620983</v>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>12394843</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9490044</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1256780</v>
+      </c>
+      <c r="E7" s="1">
+        <v>26524078</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6840281</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1526576</v>
-      </c>
-      <c r="D5" s="1">
-        <v>132891</v>
-      </c>
-      <c r="E5" s="1">
-        <v>9980359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12394843</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9490044</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1256780</v>
-      </c>
-      <c r="E6" s="1">
-        <v>26524078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>27360671</v>
-      </c>
-      <c r="C7" s="1">
-        <v>512479</v>
-      </c>
-      <c r="D7" s="1">
-        <v>104143</v>
-      </c>
-      <c r="E7" s="1">
-        <v>28307159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
     </row>
   </sheetData>
